--- a/SGSST/SG-SST AÑO 2023/3_COPASST/Cronograma de reunion.xlsx
+++ b/SGSST/SG-SST AÑO 2023/3_COPASST/Cronograma de reunion.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\COPASST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dayana Git\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\3_COPASST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF97D96-43FB-4B75-AF0D-60EAEE53B4D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2522EA74-C545-4BE9-A166-2B93005E2A7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>CRONOGRAMA DE REUNIONES</t>
   </si>
@@ -122,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,35 +210,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -257,7 +256,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -273,7 +285,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -288,7 +299,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -303,7 +313,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -318,7 +327,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -333,22 +341,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -446,16 +438,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D4603115-E5C9-48C7-AE6F-311DF6ACD9BF}" name="Tabla16" displayName="Tabla16" ref="A7:E19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A7:E19" xr:uid="{587F7564-8C1C-468D-A95B-CF2D47056A1E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla16" displayName="Tabla16" ref="A7:E19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A7:E19"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{570A7A3D-1E5A-408A-AB0D-9D18FBC65B55}" name="MES" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B01463C6-5A8D-4B2C-86DD-BEFA5DC9D1C9}" name="DIA" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{0DF3DFA7-AC43-4A80-9844-B2CC55D52636}" name="CUMPLIÓ" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{7A616805-AEF5-46D9-9E02-F48F3BE3E5E0}" name="PORCENTAJE" dataDxfId="0">
+    <tableColumn id="1" name="MES" dataDxfId="4"/>
+    <tableColumn id="2" name="DIA" dataDxfId="3"/>
+    <tableColumn id="3" name="CUMPLIÓ" dataDxfId="2"/>
+    <tableColumn id="4" name="PORCENTAJE" dataDxfId="1">
       <calculatedColumnFormula>IF(C8="Si",100%,0%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2B54F6B6-D2EB-4617-87E5-0BF25EA19DDB}" name="OBSERVACIONES" dataDxfId="1"/>
+    <tableColumn id="5" name="OBSERVACIONES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -757,11 +749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA20974C-7C88-40DF-8B4B-B7EB9FDD6C41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -773,33 +765,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="8" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -807,222 +799,226 @@
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2023</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f>IF(C8="Si",100%,0%)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" ref="D9:D19" si="0">IF(C9="Si",100%,0%)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>27</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7">
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="6">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6">
-        <v>28</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5">
         <v>31</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="6">
-        <v>20</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6">
-        <v>22</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>44953</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1034,7 +1030,7 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C19" xr:uid="{BBAB3375-04B1-42C7-A3F1-484838900979}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C19">
       <formula1>"Si, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SGSST/SG-SST AÑO 2023/3_COPASST/Cronograma de reunion.xlsx
+++ b/SGSST/SG-SST AÑO 2023/3_COPASST/Cronograma de reunion.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>CRONOGRAMA DE REUNIONES</t>
   </si>
@@ -914,10 +914,12 @@
       <c r="B13" s="5">
         <v>28</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5"/>
     </row>

--- a/SGSST/SG-SST AÑO 2023/3_COPASST/Cronograma de reunion.xlsx
+++ b/SGSST/SG-SST AÑO 2023/3_COPASST/Cronograma de reunion.xlsx
@@ -1,35 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dayana Git\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\3_COPASST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\3_COPASST\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A2F3BB-0244-4AF6-8823-D9AA45362CE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>CRONOGRAMA DE REUNIONES</t>
   </si>
@@ -121,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,16 +434,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla16" displayName="Tabla16" ref="A7:E19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A7:E19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla16" displayName="Tabla16" ref="A7:E19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A7:E19" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="MES" dataDxfId="4"/>
-    <tableColumn id="2" name="DIA" dataDxfId="3"/>
-    <tableColumn id="3" name="CUMPLIÓ" dataDxfId="2"/>
-    <tableColumn id="4" name="PORCENTAJE" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="MES" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DIA" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CUMPLIÓ" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PORCENTAJE" dataDxfId="1">
       <calculatedColumnFormula>IF(C8="Si",100%,0%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="OBSERVACIONES" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="OBSERVACIONES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -749,11 +745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -930,10 +926,12 @@
       <c r="B14" s="5">
         <v>27</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -1032,7 +1030,7 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Si, No"</formula1>
     </dataValidation>
   </dataValidations>
